--- a/Lab1.3/Requirements Linkage Traceability Matrix.xlsx
+++ b/Lab1.3/Requirements Linkage Traceability Matrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uithcm-my.sharepoint.com/personal/21520946_ms_uit_edu_vn/Documents/School/HK5/Kỹ thuật phân tích yêu cầu - SE357.O12.PMCL/Lab/Lab1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uithcm-my.sharepoint.com/personal/21520946_ms_uit_edu_vn/Documents/School/HK5/Kỹ thuật phân tích yêu cầu - SE357.O12.PMCL/Lab/Lab1/Submit/Lab1.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_F25DC773A252ABDACC104852395964225BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04BD7D0E-0BA6-4D98-9ABE-B65054350EB5}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_F25DC773A252ABDACC104852395964225BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E309B86-719F-4809-9FCB-EC4DB60B31CC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="2">
   <si>
     <t>U</t>
   </si>
@@ -104,10 +104,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,7 +372,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,9 +694,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>

--- a/Lab1.3/Requirements Linkage Traceability Matrix.xlsx
+++ b/Lab1.3/Requirements Linkage Traceability Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uithcm-my.sharepoint.com/personal/21520946_ms_uit_edu_vn/Documents/School/HK5/Kỹ thuật phân tích yêu cầu - SE357.O12.PMCL/Lab/Lab1/Submit/Lab1.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_F25DC773A252ABDACC104852395964225BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E309B86-719F-4809-9FCB-EC4DB60B31CC}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="11_F25DC773A252ABDACC104852395964225BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A694FC76-2AB3-47A4-B976-F844E25205F7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="2">
   <si>
     <t>U</t>
   </si>
@@ -369,20 +369,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="19" width="4.88671875" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="28" width="4.88671875" style="2" customWidth="1"/>
+    <col min="29" max="33" width="3.6640625" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -438,8 +439,50 @@
       <c r="S1" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -461,8 +504,22 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -471,9 +528,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -486,15 +541,27 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -511,30 +578,34 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -544,8 +615,22 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -554,9 +639,15 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -567,8 +658,22 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -590,8 +695,22 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -613,8 +732,22 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -636,8 +769,22 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -650,17 +797,37 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -682,8 +849,22 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -698,19 +879,29 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -723,7 +914,9 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -732,8 +925,22 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -745,22 +952,34 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -782,8 +1001,26 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -802,13 +1039,25 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -830,8 +1079,22 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -852,11 +1115,23 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -876,10 +1151,560 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="1" t="s">
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S19" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="1"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
